--- a/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="130">
   <si>
     <t>Row</t>
   </si>
@@ -47,6 +47,9 @@
     <t>Datasheet</t>
   </si>
   <si>
+    <t>Supplier</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -59,7 +62,7 @@
     <t>C21 C22 C25 C26</t>
   </si>
   <si>
-    <t>2,2nf50v</t>
+    <t>2,2nF50V</t>
   </si>
   <si>
     <t>C_0805_2012Metric</t>
@@ -71,55 +74,73 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>https://www.samsungsem.com/resources/file/global/support/product_catalog/MLCC.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B222KBANNNC/3886829</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>C1 C11 C14 C16 C19 C20 C28 C29 C32</t>
+  </si>
+  <si>
+    <t>100nF25V</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B104KBCNNNC/3886661</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C13 C17 C18 C23 C24 C27 C30 C31</t>
+  </si>
+  <si>
+    <t>1uF16V</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B105KAFNNNE/3886724</t>
+  </si>
+  <si>
+    <t>C2 C3 C4 C5 C6 C7 C8 C9 C10 C12 C15</t>
+  </si>
+  <si>
+    <t>10uF16V</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21X106KAYNNNE/5961182</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Light emitting diode</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>D1 D2</t>
+  </si>
+  <si>
+    <t>LED_0805_2012Metric</t>
+  </si>
+  <si>
     <t>~</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>C1 C11 C14 C16 C19 C20 C28 C29 C32</t>
-  </si>
-  <si>
-    <t>100nf25v</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C13 C17 C18 C23 C24 C27 C30 C31</t>
-  </si>
-  <si>
-    <t>1uf16v</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>C2 C3 C4 C5 C6 C7 C8 C9 C10 C12 C15</t>
-  </si>
-  <si>
-    <t>10uf16v</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Light emitting diode</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>D1 D2</t>
-  </si>
-  <si>
-    <t>LED_0805_2012Metric</t>
+    <t/>
   </si>
   <si>
     <t>6</t>
@@ -140,9 +161,6 @@
     <t>7</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>RPi_GPIO</t>
   </si>
   <si>
@@ -170,22 +188,37 @@
     <t>10</t>
   </si>
   <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT100R/1760711</t>
+  </si>
+  <si>
     <t>R16 R17 R18 R19</t>
   </si>
   <si>
     <t>470R</t>
   </si>
   <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT470R/1760300</t>
+  </si>
+  <si>
     <t>R5 R6 R7 R10</t>
   </si>
   <si>
-    <t>3K8</t>
+    <t>3K9</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT3K90/1760599</t>
   </si>
   <si>
     <t>R1 R20 R23 R24 R25</t>
   </si>
   <si>
-    <t>10k</t>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT10K0/1760676</t>
   </si>
   <si>
     <t>12</t>
@@ -197,6 +230,9 @@
     <t>100K</t>
   </si>
   <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FG100K/1712614</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
@@ -212,12 +248,33 @@
     <t>SOT-23-5</t>
   </si>
   <si>
-    <t>http://ww1.microchip.com/downloads/en/DeviceDoc/Atmel-8815-SEEPROM-AT24CS01-02-Datasheet.pdf</t>
+    <t>https://ww1.microchip.com/downloads/en/DeviceDoc/AT24C01C-AT24C02C-I2C-Compatible-Two-Wire-Serial-EEPROM-1Kbit-2Kbit-20006111A.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/microchip-technology/AT24C01C-STUM-T/3903763</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
+    <t>TLV71333PDBV-Regulator_Linear</t>
+  </si>
+  <si>
+    <t>U2 U3 U5</t>
+  </si>
+  <si>
+    <t>NCP163</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pub/Collateral/NCP163-D.PDF</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/onsemi/NCP163ASN330T1G/9694661</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>PCM1863DBT-pcm1863</t>
   </si>
   <si>
@@ -233,7 +290,10 @@
     <t>https://www.ti.com/lit/ds/symlink/pcm1863.pdf</t>
   </si>
   <si>
-    <t>15</t>
+    <t>https://www.digikey.ch/de/products/detail/texas-instruments/PCM1863DBT/4895616</t>
+  </si>
+  <si>
+    <t>16</t>
   </si>
   <si>
     <t>PCM5242RHBR-pcm5242</t>
@@ -251,19 +311,7 @@
     <t>https://www.ti.com/lit/ds/symlink/pcm5242.pdf</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>TLV71333PDBV-Regulator_Linear</t>
-  </si>
-  <si>
-    <t>U2 U3 U5</t>
-  </si>
-  <si>
-    <t>ncp163</t>
-  </si>
-  <si>
-    <t>https://www.onsemi.com/pub/Collateral/NCP163-D.PDF</t>
+    <t>https://www.digikey.ch/de/products/detail/texas-instruments/PCM5242RHBR/6571831</t>
   </si>
   <si>
     <t>17</t>
@@ -284,6 +332,9 @@
     <t>https://abracon.com/Oscillators/ASCO.pdf</t>
   </si>
   <si>
+    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASV-22-5792MHZ-LR-T/15995980</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
@@ -291,6 +342,9 @@
   </si>
   <si>
     <t>24.576Mhz</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASDMB-24-576MHZ-LC-T/2809941</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -425,12 +479,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF0FFF4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -444,6 +492,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF0BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,7 +904,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -868,11 +922,12 @@
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
+    <col min="10" max="10" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32" customHeight="1">
+    <row r="1" spans="1:10" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -880,78 +935,79 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="F2" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="F6" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -979,532 +1035,589 @@
       <c r="I8" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="H15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="H17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="45" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="45" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="30" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="H21" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="9" t="s">
-        <v>65</v>
+        <v>76</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="C22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="9" t="s">
-        <v>77</v>
+        <v>89</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="C24" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="9" t="s">
-        <v>88</v>
+        <v>103</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>87</v>
+      <c r="C26" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -1525,22 +1638,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
-        <v>111</v>
+      <c r="A4" s="11" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="131">
   <si>
     <t>Row</t>
   </si>
@@ -50,6 +50,9 @@
     <t>Supplier</t>
   </si>
   <si>
+    <t>Sim.Enable</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
     <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B222KBANNNC/3886829</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -138,9 +144,6 @@
   </si>
   <si>
     <t>~</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>6</t>
@@ -479,6 +482,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF8080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF0FFF4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -492,12 +501,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF0BD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,7 +907,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -923,11 +926,12 @@
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
     <col min="10" max="10" width="60.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32" customHeight="1">
+    <row r="1" spans="1:11" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -936,78 +940,79 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F2" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="C4" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:11">
       <c r="C5" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="C6" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F6" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1038,586 +1043,643 @@
       <c r="J8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1">
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="45" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="H15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="H17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="45" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="H21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="H23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="45" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="30" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="45" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="30" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="30" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="30" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J24" s="9" t="s">
+      <c r="H24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="11" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="30" customHeight="1">
+      <c r="J24" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>40</v>
+        <v>99</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="7" t="s">
+      <c r="D26" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="G26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="11" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="30" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>108</v>
+      <c r="J26" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -1638,22 +1700,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
-        <v>129</v>
+      <c r="A4" s="8" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
@@ -158,7 +158,7 @@
     <t>J2 J3</t>
   </si>
   <si>
-    <t>PinHeader_2x03_P2.54mm_Vertical</t>
+    <t>PinSocket_2x03_P2.54mm_Vertical</t>
   </si>
   <si>
     <t>7</t>

--- a/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="143">
   <si>
     <t>Row</t>
   </si>
@@ -149,6 +149,30 @@
     <t>6</t>
   </si>
   <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J4 J5</t>
+  </si>
+  <si>
+    <t>Audio_Jack</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -161,7 +185,10 @@
     <t>PinSocket_2x03_P2.54mm_Vertical</t>
   </si>
   <si>
-    <t>7</t>
+    <t>https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=534206&amp;DocType=Customer+Drawing&amp;DocLang=English</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/te-connectivity-amp-connectors/5-534206-3/1093005</t>
   </si>
   <si>
     <t>RPi_GPIO</t>
@@ -173,6 +200,12 @@
     <t>Pin_Header_Straight_2x20</t>
   </si>
   <si>
+    <t>https://cdn-shop.adafruit.com/product-files/2222/00587.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/2222/6238005</t>
+  </si>
+  <si>
     <t>Resistor</t>
   </si>
   <si>
@@ -215,6 +248,9 @@
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT3K90/1760599</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>R1 R20 R23 R24 R25</t>
   </si>
   <si>
@@ -224,7 +260,7 @@
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT10K0/1760676</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>R4 R9 R11 R13</t>
@@ -236,7 +272,7 @@
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FG100K/1712614</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>I2C Serial EEPROM, 1Kb (128x8) with Unique Serial Number, SOT-23-5</t>
@@ -257,7 +293,7 @@
     <t>https://www.digikey.ch/de/products/detail/microchip-technology/AT24C01C-STUM-T/3903763</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>TLV71333PDBV-Regulator_Linear</t>
@@ -275,7 +311,7 @@
     <t>https://www.digikey.ch/de/products/detail/onsemi/NCP163ASN330T1G/9694661</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>PCM1863DBT-pcm1863</t>
@@ -296,7 +332,7 @@
     <t>https://www.digikey.ch/de/products/detail/texas-instruments/PCM1863DBT/4895616</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>PCM5242RHBR-pcm5242</t>
@@ -317,7 +353,7 @@
     <t>https://www.digikey.ch/de/products/detail/texas-instruments/PCM5242RHBR/6571831</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>ASCO-Oscillator</t>
@@ -338,7 +374,7 @@
     <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASV-22-5792MHZ-LR-T/15995980</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>X2</t>
@@ -389,7 +425,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>72 (69 SMD/ 3 THT)</t>
+    <t>74 (69 SMD/ 5 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -907,7 +943,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -931,7 +967,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -944,55 +980,55 @@
     </row>
     <row r="2" spans="1:11">
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F2" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="C4" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1000,16 +1036,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="C6" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F6" s="3">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1222,7 +1258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="45" customHeight="1">
+    <row r="14" spans="1:11" ht="30" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>42</v>
       </c>
@@ -1236,10 +1272,10 @@
         <v>45</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>22</v>
@@ -1247,46 +1283,46 @@
       <c r="H14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I14" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>21</v>
+      <c r="I14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="45" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>21</v>
+        <v>50</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>21</v>
+      <c r="I15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>21</v>
@@ -1296,32 +1332,32 @@
       <c r="A16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>51</v>
+      <c r="B16" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>18</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>21</v>
@@ -1332,31 +1368,31 @@
         <v>25</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>21</v>
@@ -1364,22 +1400,22 @@
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>17</v>
@@ -1388,10 +1424,10 @@
         <v>18</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>21</v>
@@ -1402,31 +1438,31 @@
         <v>34</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="G19" s="5" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>21</v>
@@ -1434,104 +1470,104 @@
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1">
       <c r="A20" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="J20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="45" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="45" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="30" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="H22" s="9" t="s">
         <v>18</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>21</v>
@@ -1539,34 +1575,34 @@
     </row>
     <row r="23" spans="1:11" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="G23" s="5" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>21</v>
@@ -1574,22 +1610,22 @@
     </row>
     <row r="24" spans="1:11" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>11</v>
@@ -1598,10 +1634,10 @@
         <v>18</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>21</v>
@@ -1609,22 +1645,22 @@
     </row>
     <row r="25" spans="1:11" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>11</v>
@@ -1633,10 +1669,10 @@
         <v>18</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>21</v>
@@ -1644,22 +1680,22 @@
     </row>
     <row r="26" spans="1:11" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>11</v>
@@ -1668,12 +1704,47 @@
         <v>18</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="K26" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K27" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1700,22 +1771,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
@@ -8,17 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
-    <sheet name="Colors" sheetId="2" r:id="rId2"/>
+    <sheet name="DNF" sheetId="2" r:id="rId2"/>
+    <sheet name="Colors" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BoM!$9:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">DNF!$9:$9</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="144">
   <si>
     <t>Row</t>
   </si>
@@ -149,6 +151,273 @@
     <t>6</t>
   </si>
   <si>
+    <t>Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x03_Odd_Even</t>
+  </si>
+  <si>
+    <t>J2 J3</t>
+  </si>
+  <si>
+    <t>PinSocket_2x03_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=534206&amp;DocType=Customer+Drawing&amp;DocLang=English</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/te-connectivity-amp-connectors/5-534206-3/1093005</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>RPi_GPIO</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>Pin_Header_Straight_2x20</t>
+  </si>
+  <si>
+    <t>https://cdn-shop.adafruit.com/product-files/2222/00587.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/2222/6238005</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R2 R3 R8 R12 R14 R15 R21 R22 R26 R27</t>
+  </si>
+  <si>
+    <t>100R</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT100R/1760711</t>
+  </si>
+  <si>
+    <t>R16 R17 R18 R19</t>
+  </si>
+  <si>
+    <t>470R</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT470R/1760300</t>
+  </si>
+  <si>
+    <t>R5 R6 R7 R10</t>
+  </si>
+  <si>
+    <t>3K9</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT3K90/1760599</t>
+  </si>
+  <si>
+    <t>R1 R20 R23 R24 R25</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT10K0/1760676</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>R4 R9 R11 R13</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FG100K/1712614</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>I2C Serial EEPROM, 1Kb (128x8) with Unique Serial Number, SOT-23-5</t>
+  </si>
+  <si>
+    <t>AT24CS01-STUM</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>https://ww1.microchip.com/downloads/en/DeviceDoc/AT24C01C-AT24C02C-I2C-Compatible-Two-Wire-Serial-EEPROM-1Kbit-2Kbit-20006111A.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/microchip-technology/AT24C01C-STUM-T/3903763</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>TLV71333PDBV-Regulator_Linear</t>
+  </si>
+  <si>
+    <t>U2 U3 U5</t>
+  </si>
+  <si>
+    <t>NCP163</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pub/Collateral/NCP163-D.PDF</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/onsemi/NCP163ASN330T1G/9694661</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>PCM1863DBT-pcm1863</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>PCM1863DBT</t>
+  </si>
+  <si>
+    <t>TSSOP-30_4.4x7.8mm_P0.5mm</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/pcm1863.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/texas-instruments/PCM1863DBT/4895616</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>PCM5242RHBR-pcm5242</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>PCM5242RHBR</t>
+  </si>
+  <si>
+    <t>HVQFN-32-1EP_5x5mm_P0.5mm_EP3.1x3.1mm_ThermalVias</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/pcm5242.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/texas-instruments/PCM5242RHBR/6571831</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>ASCO-Oscillator</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>22.5792Mhz</t>
+  </si>
+  <si>
+    <t>Oscillator_SMD_Abracon_ASDMB-4Pin_2.5x2.0mm</t>
+  </si>
+  <si>
+    <t>https://abracon.com/Oscillators/ASCO.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASV-22-5792MHZ-LR-T/15995980</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>24.576Mhz</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASDMB-24-576MHZ-LC-T/2809941</t>
+  </si>
+  <si>
+    <t>KiBot Bill of Materials</t>
+  </si>
+  <si>
+    <t>Schematic:</t>
+  </si>
+  <si>
+    <t>pedalboard-soundcard</t>
+  </si>
+  <si>
+    <t>Variant:</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Revision:</t>
+  </si>
+  <si>
+    <t>0.0.1</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>2023-12-19</t>
+  </si>
+  <si>
+    <t>KiCad Version:</t>
+  </si>
+  <si>
+    <t>7.0.9-7.0.9~ubuntu23.04.1</t>
+  </si>
+  <si>
+    <t>Component Groups:</t>
+  </si>
+  <si>
+    <t>Component Count:</t>
+  </si>
+  <si>
+    <t>74 (69 SMD/ 5 THT)</t>
+  </si>
+  <si>
+    <t>Fitted Components:</t>
+  </si>
+  <si>
+    <t>72 (69 SMD/ 3 THT)</t>
+  </si>
+  <si>
+    <t>Number of PCBs:</t>
+  </si>
+  <si>
+    <t>Total Components:</t>
+  </si>
+  <si>
     <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
   </si>
   <si>
@@ -164,277 +433,13 @@
     <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
   </si>
   <si>
+    <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
     <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
   </si>
   <si>
     <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x03_Odd_Even</t>
-  </si>
-  <si>
-    <t>J2 J3</t>
-  </si>
-  <si>
-    <t>PinSocket_2x03_P2.54mm_Vertical</t>
-  </si>
-  <si>
-    <t>https://www.te.com/commerce/DocumentDelivery/DDEController?Action=srchrtrv&amp;DocNm=534206&amp;DocType=Customer+Drawing&amp;DocLang=English</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/te-connectivity-amp-connectors/5-534206-3/1093005</t>
-  </si>
-  <si>
-    <t>RPi_GPIO</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>Pin_Header_Straight_2x20</t>
-  </si>
-  <si>
-    <t>https://cdn-shop.adafruit.com/product-files/2222/00587.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/2222/6238005</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R2 R3 R8 R12 R14 R15 R21 R22 R26 R27</t>
-  </si>
-  <si>
-    <t>100R</t>
-  </si>
-  <si>
-    <t>R_0805_2012Metric</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT100R/1760711</t>
-  </si>
-  <si>
-    <t>R16 R17 R18 R19</t>
-  </si>
-  <si>
-    <t>470R</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT470R/1760300</t>
-  </si>
-  <si>
-    <t>R5 R6 R7 R10</t>
-  </si>
-  <si>
-    <t>3K9</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT3K90/1760599</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>R1 R20 R23 R24 R25</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT10K0/1760676</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>R4 R9 R11 R13</t>
-  </si>
-  <si>
-    <t>100K</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FG100K/1712614</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>I2C Serial EEPROM, 1Kb (128x8) with Unique Serial Number, SOT-23-5</t>
-  </si>
-  <si>
-    <t>AT24CS01-STUM</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SOT-23-5</t>
-  </si>
-  <si>
-    <t>https://ww1.microchip.com/downloads/en/DeviceDoc/AT24C01C-AT24C02C-I2C-Compatible-Two-Wire-Serial-EEPROM-1Kbit-2Kbit-20006111A.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/microchip-technology/AT24C01C-STUM-T/3903763</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>TLV71333PDBV-Regulator_Linear</t>
-  </si>
-  <si>
-    <t>U2 U3 U5</t>
-  </si>
-  <si>
-    <t>NCP163</t>
-  </si>
-  <si>
-    <t>https://www.onsemi.com/pub/Collateral/NCP163-D.PDF</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/onsemi/NCP163ASN330T1G/9694661</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>PCM1863DBT-pcm1863</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>PCM1863DBT</t>
-  </si>
-  <si>
-    <t>TSSOP-30_4.4x7.8mm_P0.5mm</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/pcm1863.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/texas-instruments/PCM1863DBT/4895616</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>PCM5242RHBR-pcm5242</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>PCM5242RHBR</t>
-  </si>
-  <si>
-    <t>HVQFN-32-1EP_5x5mm_P0.5mm_EP3.1x3.1mm_ThermalVias</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/pcm5242.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/texas-instruments/PCM5242RHBR/6571831</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>ASCO-Oscillator</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>22.5792Mhz</t>
-  </si>
-  <si>
-    <t>Oscillator_SMD_Abracon_ASDMB-4Pin_2.5x2.0mm</t>
-  </si>
-  <si>
-    <t>https://abracon.com/Oscillators/ASCO.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASV-22-5792MHZ-LR-T/15995980</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>24.576Mhz</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASDMB-24-576MHZ-LC-T/2809941</t>
-  </si>
-  <si>
-    <t>KiBot Bill of Materials</t>
-  </si>
-  <si>
-    <t>Schematic:</t>
-  </si>
-  <si>
-    <t>pedalboard-soundcard</t>
-  </si>
-  <si>
-    <t>Variant:</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>Revision:</t>
-  </si>
-  <si>
-    <t>0.0.1</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>2023-12-19</t>
-  </si>
-  <si>
-    <t>KiCad Version:</t>
-  </si>
-  <si>
-    <t>7.0.9-7.0.9~ubuntu23.04.1</t>
-  </si>
-  <si>
-    <t>Component Groups:</t>
-  </si>
-  <si>
-    <t>Component Count:</t>
-  </si>
-  <si>
-    <t>74 (69 SMD/ 5 THT)</t>
-  </si>
-  <si>
-    <t>Fitted Components:</t>
-  </si>
-  <si>
-    <t>Number of PCBs:</t>
-  </si>
-  <si>
-    <t>Total Components:</t>
   </si>
   <si>
     <t>KiCad Fields (default)</t>
@@ -607,6 +612,58 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1464384</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2378784" cy="1285829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -943,7 +1000,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -967,7 +1024,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -980,13 +1037,13 @@
     </row>
     <row r="2" spans="1:11">
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F2" s="3">
         <v>19</v>
@@ -994,41 +1051,41 @@
     </row>
     <row r="3" spans="1:11">
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="C4" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="C5" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1036,16 +1093,16 @@
     </row>
     <row r="6" spans="1:11">
       <c r="C6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="F6" s="3">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1258,7 +1315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1">
+    <row r="14" spans="1:11" ht="45" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>42</v>
       </c>
@@ -1272,10 +1329,10 @@
         <v>45</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>46</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>47</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>22</v>
@@ -1284,45 +1341,45 @@
         <v>18</v>
       </c>
       <c r="I14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="K14" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="45" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="G15" s="5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>21</v>
@@ -1332,32 +1389,32 @@
       <c r="A16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>21</v>
+      <c r="B16" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>18</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>21</v>
@@ -1368,31 +1425,31 @@
         <v>25</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>21</v>
@@ -1400,22 +1457,22 @@
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1">
       <c r="A18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="F18" s="11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>17</v>
@@ -1424,10 +1481,10 @@
         <v>18</v>
       </c>
       <c r="I18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>21</v>
@@ -1438,31 +1495,31 @@
         <v>34</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>21</v>
@@ -1470,104 +1527,104 @@
     </row>
     <row r="20" spans="1:11" ht="30" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>18</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="45" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K20" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="E21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="G21" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="J21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="30" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="K21" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="45" customHeight="1">
-      <c r="A22" s="9" t="s">
+      <c r="B22" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="D22" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>87</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>86</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>18</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>21</v>
@@ -1575,34 +1632,34 @@
     </row>
     <row r="23" spans="1:11" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="G23" s="5" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="K23" s="8" t="s">
         <v>21</v>
@@ -1610,22 +1667,22 @@
     </row>
     <row r="24" spans="1:11" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>100</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>11</v>
@@ -1634,10 +1691,10 @@
         <v>18</v>
       </c>
       <c r="I24" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>21</v>
@@ -1645,22 +1702,22 @@
     </row>
     <row r="25" spans="1:11" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>11</v>
@@ -1669,10 +1726,10 @@
         <v>18</v>
       </c>
       <c r="I25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="K25" s="8" t="s">
         <v>21</v>
@@ -1680,22 +1737,22 @@
     </row>
     <row r="26" spans="1:11" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>114</v>
-      </c>
       <c r="F26" s="11" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>11</v>
@@ -1704,47 +1761,12 @@
         <v>18</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="30" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="K27" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1760,6 +1782,193 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="60.7109375" customWidth="1"/>
+    <col min="10" max="10" width="60.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="32" customHeight="1">
+      <c r="C1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="C2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="C3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="C4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="C5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="C6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1771,22 +1980,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
@@ -184,7 +184,7 @@
     <t>https://cdn-shop.adafruit.com/product-files/2222/00587.pdf</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/detail/adafruit-industries-llc/2222/6238005</t>
+    <t>https://www.digikey.ch/en/products/detail/adafruit-industries-llc/2222/6238005</t>
   </si>
   <si>
     <t>Resistor</t>

--- a/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
@@ -394,7 +394,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>7.0.9-7.0.9~ubuntu23.04.1</t>
+    <t>7.0.11+1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -1794,7 +1794,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="40.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>

--- a/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="145">
   <si>
     <t>Row</t>
   </si>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
+  </si>
+  <si>
+    <t>Columns colors</t>
   </si>
   <si>
     <t>KiCad Fields (default)</t>
@@ -1969,33 +1972,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="138">
   <si>
     <t>Row</t>
   </si>
@@ -52,13 +52,10 @@
     <t>Supplier</t>
   </si>
   <si>
-    <t>Sim.Enable</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>Unpolarized capacitor</t>
+    <t/>
   </si>
   <si>
     <t>C</t>
@@ -85,9 +82,6 @@
     <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B222KBANNNC/3886829</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>Light emitting diode</t>
-  </si>
-  <si>
     <t>LED</t>
   </si>
   <si>
@@ -151,9 +142,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>Generic connector, double row, 02x03, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
     <t>Conn_02x03_Odd_Even</t>
   </si>
   <si>
@@ -187,9 +175,6 @@
     <t>https://www.digikey.ch/en/products/detail/adafruit-industries-llc/2222/6238005</t>
   </si>
   <si>
-    <t>Resistor</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -253,9 +238,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>I2C Serial EEPROM, 1Kb (128x8) with Unique Serial Number, SOT-23-5</t>
-  </si>
-  <si>
     <t>AT24CS01-STUM</t>
   </si>
   <si>
@@ -394,7 +376,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>7.0.11+1</t>
+    <t>8.0.4+1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -416,9 +398,6 @@
   </si>
   <si>
     <t>Total Components:</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
   </si>
   <si>
     <t>AudioJack3_SwitchTR</t>
@@ -514,7 +493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6F9FF"/>
+        <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,7 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
+        <fgColor rgb="FFE6F9FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,7 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0FFFF"/>
+        <fgColor rgb="FFFF8A8A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,7 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8A8A"/>
+        <fgColor rgb="FFF0FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,8 +603,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1464384</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16584</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
@@ -676,8 +655,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1464384</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16584</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
@@ -1003,7 +982,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1013,7 +992,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" customWidth="1"/>
     <col min="4" max="4" width="41.7109375" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" customWidth="1"/>
@@ -1022,12 +1001,11 @@
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
     <col min="10" max="10" width="60.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32" customHeight="1">
+    <row r="1" spans="1:10" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1036,79 +1014,78 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F2" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:10">
       <c r="C6" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F6" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1139,643 +1116,586 @@
       <c r="J8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="6" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="B10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1">
-      <c r="A10" s="9" t="s">
+      <c r="E10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="F10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="D11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="B17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="45" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1">
-      <c r="A12" s="9" t="s">
+      <c r="H22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="45" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="I22" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="30" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="C23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="30" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="9" t="s">
+      <c r="I23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="30" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="I24" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="45" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="I25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="30" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="30" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="30" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="11" t="s">
+      <c r="D26" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="G26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="K24" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="30" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="J26" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="30" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -1785,7 +1705,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1795,7 +1715,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
@@ -1804,12 +1724,11 @@
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
     <col min="10" max="10" width="60.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32" customHeight="1">
+    <row r="1" spans="1:10" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1818,79 +1737,78 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F2" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="C3" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:10">
       <c r="C6" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F6" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1921,48 +1839,42 @@
       <c r="J8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -1983,27 +1895,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
-        <v>143</v>
+      <c r="A4" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="8" t="s">
-        <v>144</v>
+      <c r="A5" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="139">
   <si>
     <t>Row</t>
   </si>
@@ -205,7 +205,7 @@
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT470R/1760300</t>
   </si>
   <si>
-    <t>R5 R6 R7 R10</t>
+    <t>R5 R6 R7</t>
   </si>
   <si>
     <t>3K9</t>
@@ -391,7 +391,7 @@
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>72 (69 SMD/ 3 THT)</t>
+    <t>71 (68 SMD/ 3 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
+  </si>
+  <si>
+    <t>R10</t>
   </si>
   <si>
     <t>Columns colors</t>
@@ -1026,7 +1029,7 @@
         <v>119</v>
       </c>
       <c r="F2" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1082,7 +1085,7 @@
         <v>125</v>
       </c>
       <c r="F6" s="3">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1425,7 +1428,7 @@
         <v>54</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>17</v>
@@ -1705,7 +1708,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1749,7 +1752,7 @@
         <v>119</v>
       </c>
       <c r="F2" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1805,7 +1808,7 @@
         <v>125</v>
       </c>
       <c r="F6" s="3">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1870,6 +1873,38 @@
       </c>
       <c r="J9" s="8" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1895,27 +1930,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="144">
   <si>
     <t>Row</t>
   </si>
@@ -85,6 +85,21 @@
     <t>2</t>
   </si>
   <si>
+    <t>Film Capacitor</t>
+  </si>
+  <si>
+    <t>C33 C34</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B104KBCNNNC/3886661</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>C1 C11 C14 C16 C19 C20 C28 C29 C32</t>
   </si>
   <si>
@@ -94,12 +109,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B104KBCNNNC/3886661</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>C13 C17 C18 C23 C24 C27 C30 C31</t>
   </si>
   <si>
@@ -112,6 +121,9 @@
     <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B105KAFNNNE/3886724</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>C2 C3 C4 C5 C6 C7 C8 C9 C10 C12 C15</t>
   </si>
   <si>
@@ -124,7 +136,7 @@
     <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21X106KAYNNNE/5961182</t>
   </si>
   <si>
-    <t>5</t>
+    <t>6</t>
   </si>
   <si>
     <t>LED</t>
@@ -139,7 +151,7 @@
     <t>~</t>
   </si>
   <si>
-    <t>6</t>
+    <t>7</t>
   </si>
   <si>
     <t>Conn_02x03_Odd_Even</t>
@@ -157,9 +169,6 @@
     <t>https://www.digikey.ch/de/products/detail/te-connectivity-amp-connectors/5-534206-3/1093005</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>RPi_GPIO</t>
   </si>
   <si>
@@ -214,6 +223,9 @@
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT3K90/1760599</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>R1 R20 R23 R24 R25</t>
   </si>
   <si>
@@ -223,7 +235,7 @@
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FT10K0/1760676</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>R4 R9 R11 R13</t>
@@ -235,7 +247,7 @@
     <t>https://www.digikey.ch/de/products/detail/stackpole-electronics-inc/RMCF0805FG100K/1712614</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>AT24CS01-STUM</t>
@@ -253,10 +265,13 @@
     <t>https://www.digikey.ch/de/products/detail/microchip-technology/AT24C01C-STUM-T/3903763</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>TLV71333PDBV-Regulator_Linear</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>250mA low-noise LDO, 2.2V-5.5V input, 3.3V output, SOT-23-5</t>
+  </si>
+  <si>
+    <t>NCP163ASN330T1G</t>
   </si>
   <si>
     <t>U2 U3 U5</t>
@@ -265,13 +280,13 @@
     <t>NCP163</t>
   </si>
   <si>
-    <t>https://www.onsemi.com/pub/Collateral/NCP163-D.PDF</t>
+    <t>https://www.onsemi.com/pdf/datasheet/ncp163-d.pdf</t>
   </si>
   <si>
     <t>https://www.digikey.ch/de/products/detail/onsemi/NCP163ASN330T1G/9694661</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>PCM1863DBT-pcm1863</t>
@@ -292,7 +307,7 @@
     <t>https://www.digikey.ch/de/products/detail/texas-instruments/PCM1863DBT/4895616</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>PCM5242RHBR-pcm5242</t>
@@ -313,7 +328,7 @@
     <t>https://www.digikey.ch/de/products/detail/texas-instruments/PCM5242RHBR/6571831</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>ASCO-Oscillator</t>
@@ -334,7 +349,7 @@
     <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASV-22-5792MHZ-LR-T/15995980</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>X2</t>
@@ -385,13 +400,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>74 (69 SMD/ 5 THT)</t>
+    <t>76 (71 SMD/ 5 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>71 (68 SMD/ 3 THT)</t>
+    <t>73 (70 SMD/ 3 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -520,7 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8A8A"/>
+        <fgColor rgb="FFF0FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,7 +547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0FFFF"/>
+        <fgColor rgb="FFFF8A8A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,8 +621,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>16584</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1464384</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
@@ -985,7 +1000,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -995,8 +1010,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="41.7109375" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" customWidth="1"/>
     <col min="6" max="6" width="54.7109375" customWidth="1"/>
@@ -1008,7 +1023,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1020,55 +1035,55 @@
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F2" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1076,16 +1091,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="C6" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F6" s="3">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1157,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>17</v>
@@ -1180,7 +1195,7 @@
       <c r="I10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1213,30 +1228,30 @@
         <v>18</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>17</v>
@@ -1244,60 +1259,60 @@
       <c r="I12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="B14" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="45" customHeight="1">
-      <c r="A14" s="9" t="s">
+      <c r="C14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>20</v>
@@ -1305,104 +1320,104 @@
       <c r="H14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="G15" s="5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="G16" s="9" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>60</v>
@@ -1410,13 +1425,13 @@
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>61</v>
@@ -1425,30 +1440,30 @@
         <v>62</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>64</v>
@@ -1457,16 +1472,16 @@
         <v>65</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J19" s="8" t="s">
         <v>66</v>
@@ -1476,11 +1491,11 @@
       <c r="A20" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>68</v>
@@ -1489,22 +1504,22 @@
         <v>69</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="45" customHeight="1">
+    <row r="21" spans="1:10" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -1512,112 +1527,112 @@
         <v>11</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="F21" s="7" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="45" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="B22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="30" customHeight="1">
-      <c r="A22" s="9" t="s">
+      <c r="D22" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="E22" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>74</v>
-      </c>
       <c r="G22" s="9" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="F23" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="F24" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>10</v>
@@ -1626,30 +1641,30 @@
         <v>17</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>10</v>
@@ -1658,30 +1673,30 @@
         <v>17</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="F26" s="11" t="s">
         <v>106</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>101</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>10</v>
@@ -1690,10 +1705,42 @@
         <v>17</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="J26" s="12" t="s">
         <v>107</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1731,7 +1778,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1743,55 +1790,55 @@
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F2" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1799,16 +1846,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="C6" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F6" s="3">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1851,60 +1898,60 @@
         <v>11</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1930,27 +1977,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
@@ -379,13 +379,13 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-12-19</t>
+    <t>2024-10-16</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
@@ -379,7 +379,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1-RC</t>
   </si>
   <si>
     <t>Date:</t>

--- a/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="146">
   <si>
     <t>Row</t>
   </si>
@@ -94,19 +94,25 @@
     <t>10nF</t>
   </si>
   <si>
+    <t>https://industrial.panasonic.com/ww/products/pt/film-cap-electroequip/models/ECHU1C103JX5</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/en/products/detail/panasonic-electronic-components/ECH-U1C103JX5/353645</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C1 C11 C14 C16 C19 C20 C28 C29 C32</t>
+  </si>
+  <si>
+    <t>100nF25V</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL21B104KBCNNNC/3886661</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C1 C11 C14 C16 C19 C20 C28 C29 C32</t>
-  </si>
-  <si>
-    <t>100nF25V</t>
-  </si>
-  <si>
-    <t>9</t>
   </si>
   <si>
     <t>C13 C17 C18 C23 C24 C27 C30 C31</t>
@@ -1023,7 +1029,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1035,13 +1041,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F2" s="3">
         <v>21</v>
@@ -1049,41 +1055,41 @@
     </row>
     <row r="3" spans="1:10">
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1091,13 +1097,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="C6" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F6" s="3">
         <v>73</v>
@@ -1193,15 +1199,15 @@
         <v>17</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>11</v>
@@ -1210,16 +1216,16 @@
         <v>12</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>17</v>
@@ -1228,7 +1234,7 @@
         <v>18</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1">
@@ -1242,16 +1248,16 @@
         <v>12</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>17</v>
@@ -1260,12 +1266,12 @@
         <v>18</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>11</v>
@@ -1274,16 +1280,16 @@
         <v>12</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>17</v>
@@ -1292,27 +1298,27 @@
         <v>18</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>20</v>
@@ -1321,7 +1327,7 @@
         <v>17</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>11</v>
@@ -1329,22 +1335,22 @@
     </row>
     <row r="15" spans="1:10" ht="45" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>20</v>
@@ -1353,30 +1359,30 @@
         <v>17</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>10</v>
@@ -1385,62 +1391,62 @@
         <v>17</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>16</v>
@@ -1449,94 +1455,94 @@
         <v>17</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>16</v>
@@ -1545,30 +1551,30 @@
         <v>17</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="45" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>10</v>
@@ -1577,62 +1583,62 @@
         <v>17</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>10</v>
@@ -1641,30 +1647,30 @@
         <v>17</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>10</v>
@@ -1673,30 +1679,30 @@
         <v>17</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>10</v>
@@ -1705,30 +1711,30 @@
         <v>17</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>10</v>
@@ -1737,10 +1743,10 @@
         <v>17</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1778,7 +1784,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1790,13 +1796,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F2" s="3">
         <v>21</v>
@@ -1804,41 +1810,41 @@
     </row>
     <row r="3" spans="1:10">
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="C5" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1846,13 +1852,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="C6" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F6" s="3">
         <v>73</v>
@@ -1898,28 +1904,28 @@
         <v>11</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1">
@@ -1930,28 +1936,28 @@
         <v>11</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1977,27 +1983,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="147">
   <si>
     <t>Row</t>
   </si>
@@ -64,7 +64,7 @@
     <t>C21 C22 C25 C26</t>
   </si>
   <si>
-    <t>2,2nF50V</t>
+    <t>2n2</t>
   </si>
   <si>
     <t>C_0805_2012Metric</t>
@@ -91,7 +91,7 @@
     <t>C33 C34</t>
   </si>
   <si>
-    <t>10nF</t>
+    <t>10n_film</t>
   </si>
   <si>
     <t>https://industrial.panasonic.com/ww/products/pt/film-cap-electroequip/models/ECHU1C103JX5</t>
@@ -106,7 +106,7 @@
     <t>C1 C11 C14 C16 C19 C20 C28 C29 C32</t>
   </si>
   <si>
-    <t>100nF25V</t>
+    <t>100n</t>
   </si>
   <si>
     <t>9</t>
@@ -118,7 +118,7 @@
     <t>C13 C17 C18 C23 C24 C27 C30 C31</t>
   </si>
   <si>
-    <t>1uF16V</t>
+    <t>1u</t>
   </si>
   <si>
     <t>8</t>
@@ -133,7 +133,7 @@
     <t>C2 C3 C4 C5 C6 C7 C8 C9 C10 C12 C15</t>
   </si>
   <si>
-    <t>10uF16V</t>
+    <t>10u</t>
   </si>
   <si>
     <t>11</t>
@@ -151,6 +151,9 @@
     <t>D1 D2</t>
   </si>
   <si>
+    <t>red</t>
+  </si>
+  <si>
     <t>LED_0805_2012Metric</t>
   </si>
   <si>
@@ -343,7 +346,7 @@
     <t>X1</t>
   </si>
   <si>
-    <t>22.5792Mhz</t>
+    <t>22.5792M</t>
   </si>
   <si>
     <t>Oscillator_SMD_Abracon_ASDMB-4Pin_2.5x2.0mm</t>
@@ -361,7 +364,7 @@
     <t>X2</t>
   </si>
   <si>
-    <t>24.576Mhz</t>
+    <t>24.576M</t>
   </si>
   <si>
     <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASDMB-24-576MHZ-LC-T/2809941</t>
@@ -397,7 +400,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>8.0.4+1</t>
+    <t>8.0.6+1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -627,10 +630,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1464384</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123779</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>297815</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -657,7 +660,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2378784" cy="1285829"/>
+          <a:ext cx="9396825" cy="5079365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -679,10 +682,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>16584</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123779</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2691225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>107315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -709,7 +712,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2378784" cy="1285829"/>
+          <a:ext cx="9396825" cy="5079365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1029,7 +1032,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1041,13 +1044,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F2" s="3">
         <v>21</v>
@@ -1055,41 +1058,41 @@
     </row>
     <row r="3" spans="1:10">
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="C4" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="C5" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1097,13 +1100,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F6" s="3">
         <v>73</v>
@@ -1315,10 +1318,10 @@
         <v>42</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>20</v>
@@ -1327,7 +1330,7 @@
         <v>17</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>11</v>
@@ -1335,22 +1338,22 @@
     </row>
     <row r="15" spans="1:10" ht="45" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="F15" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>20</v>
@@ -1359,10 +1362,10 @@
         <v>17</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
@@ -1373,16 +1376,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="F16" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>10</v>
@@ -1391,10 +1394,10 @@
         <v>17</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1">
@@ -1405,48 +1408,48 @@
         <v>11</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>16</v>
@@ -1455,10 +1458,10 @@
         <v>17</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1">
@@ -1469,16 +1472,16 @@
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>26</v>
@@ -1487,30 +1490,30 @@
         <v>17</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1">
       <c r="A20" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>35</v>
@@ -1519,30 +1522,30 @@
         <v>17</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>16</v>
@@ -1551,30 +1554,30 @@
         <v>17</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="45" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D22" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>78</v>
-      </c>
       <c r="F22" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>10</v>
@@ -1583,30 +1586,30 @@
         <v>17</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>26</v>
@@ -1615,30 +1618,30 @@
         <v>17</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1">
       <c r="A24" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>10</v>
@@ -1647,30 +1650,30 @@
         <v>17</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>10</v>
@@ -1679,30 +1682,30 @@
         <v>17</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>10</v>
@@ -1711,30 +1714,30 @@
         <v>17</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>10</v>
@@ -1743,10 +1746,10 @@
         <v>17</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1787,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1796,13 +1799,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F2" s="3">
         <v>21</v>
@@ -1810,41 +1813,41 @@
     </row>
     <row r="3" spans="1:10">
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="C4" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="C5" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1852,13 +1855,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F6" s="3">
         <v>73</v>
@@ -1904,28 +1907,28 @@
         <v>11</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1">
@@ -1936,28 +1939,28 @@
         <v>11</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1983,27 +1986,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
@@ -151,7 +151,7 @@
     <t>D1 D2</t>
   </si>
   <si>
-    <t>red</t>
+    <t>LED_R</t>
   </si>
   <si>
     <t>LED_0805_2012Metric</t>

--- a/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
@@ -352,10 +352,10 @@
     <t>Oscillator_SMD_Abracon_ASDMB-4Pin_2.5x2.0mm</t>
   </si>
   <si>
-    <t>https://abracon.com/Oscillators/ASCO.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASV-22-5792MHZ-LR-T/15995980</t>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Kyocera%20International/Z_Series_X_Type.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/en/products/detail/kyocera-avx/KC2016Z22-5792C1KX00/11610237</t>
   </si>
   <si>
     <t>19</t>
@@ -367,7 +367,7 @@
     <t>24.576M</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/de/products/detail/abracon-llc/ASDMB-24-576MHZ-LC-T/2809941</t>
+    <t>https://www.digikey.ch/en/products/detail/kyocera-avx/KC2016Z24-5760C1KX00/11610181</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>

--- a/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-soundcard-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="150">
   <si>
     <t>Row</t>
   </si>
@@ -52,6 +52,9 @@
     <t>Supplier</t>
   </si>
   <si>
+    <t>Sim.Pins</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
     <t>6</t>
   </si>
   <si>
+    <t>Light emitting diode</t>
+  </si>
+  <si>
     <t>LED</t>
   </si>
   <si>
@@ -160,6 +166,9 @@
     <t>~</t>
   </si>
   <si>
+    <t>1=K 2=A</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -400,7 +409,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>8.0.6+1</t>
+    <t>9.0.1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -630,10 +639,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>5175</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>297815</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1464384</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -660,7 +669,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9396825" cy="5079365"/>
+          <a:ext cx="2378784" cy="1285829"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -682,10 +691,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2691225</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>107315</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16584</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -712,7 +721,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9396825" cy="5079365"/>
+          <a:ext cx="2378784" cy="1285829"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1009,7 +1018,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1028,11 +1037,12 @@
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
     <col min="10" max="10" width="60.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32" customHeight="1">
+    <row r="1" spans="1:11" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1041,78 +1051,79 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F2" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="C5" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="C6" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F6" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1143,618 +1154,678 @@
       <c r="J8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1">
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="45" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="H16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="H18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="I18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="H21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="45" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="H22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="H23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="I23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="11" t="s">
+      <c r="H24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="I24" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="H25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="I25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="12" t="s">
+      <c r="H26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="30" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="45" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="30" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="30" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="45" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="30" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="30" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="30" customHeight="1">
-      <c r="A25" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="30" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="30" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="H27" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="J27" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -1764,7 +1835,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1783,11 +1854,12 @@
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>
     <col min="10" max="10" width="60.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32" customHeight="1">
+    <row r="1" spans="1:11" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1796,78 +1868,79 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F2" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="C3" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="C5" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="C6" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F6" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -1898,74 +1971,83 @@
       <c r="J8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1">
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="H10" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="I10" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape"/>
@@ -1986,27 +2068,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
